--- a/ApolloQA/Data/RatingManual/GA/VA00049.AntiTheftCategoryFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00049.AntiTheftCategoryFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00049.AntiTheftCategoryFactors" sheetId="1" r:id="Rb821bfb517ee49b9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00049.AntiTheftCategoryFactors" sheetId="1" r:id="R81f058bc72b84ad0"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,15 +12,151 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Anti-Theft Category</x:v>
+        <x:v>Insurance Score Tier</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Anti-Theft Category Factor</x:v>
+        <x:v>Insurance Score Tier Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Not Applicable</x:v>
+        <x:v>AB01</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.7800</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB02</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.7800</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB03</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.7845</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB04</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8083</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB05</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8085</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB06</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8636</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB07</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8871</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB08</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0705</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB09</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1764</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.3258</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.3415</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB12</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.3500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB13</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.3700</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB14</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.3810</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.3900</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB16</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.4183</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>AB17</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.4183</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>ABNA</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
@@ -28,7 +164,7 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Type 1</x:v>
+        <x:v>ABNH</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
@@ -36,7 +172,7 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Type 2</x:v>
+        <x:v>ABTF</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
